--- a/tables/table2_Fc2_dim10.xlsx
+++ b/tables/table2_Fc2_dim10.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -684,2053 +684,2053 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>22312296789.9277</v>
+        <v>22809272763.3479</v>
       </c>
       <c r="C2" t="n">
-        <v>22830537595.3309</v>
+        <v>26159312407.7325</v>
       </c>
       <c r="D2" t="n">
-        <v>20352867821.4976</v>
+        <v>20667734735.9581</v>
       </c>
       <c r="E2" t="n">
-        <v>10822601760.939</v>
+        <v>21681141652.9882</v>
       </c>
       <c r="F2" t="n">
-        <v>18234234326.9935</v>
+        <v>15307392875.1212</v>
       </c>
       <c r="G2" t="n">
-        <v>2818815717.8832</v>
+        <v>9123034384.7486</v>
       </c>
       <c r="H2" t="n">
-        <v>17461254995.0346</v>
+        <v>13109668020.5104</v>
       </c>
       <c r="I2" t="n">
-        <v>24323488571.4941</v>
+        <v>22030963437.7001</v>
       </c>
       <c r="J2" t="n">
-        <v>18599380610.2327</v>
+        <v>16535415926.6821</v>
       </c>
       <c r="K2" t="n">
-        <v>21230728245.7429</v>
+        <v>21271936004.6967</v>
       </c>
       <c r="L2" t="n">
-        <v>17155558459.4827</v>
+        <v>15104524825.2838</v>
       </c>
       <c r="M2" t="n">
-        <v>19600940957.1958</v>
+        <v>9128492777.292</v>
       </c>
       <c r="N2" t="n">
-        <v>21167394210.9504</v>
+        <v>10345454898.3618</v>
       </c>
       <c r="O2" t="n">
-        <v>12433335660.4196</v>
+        <v>13815257573.6046</v>
       </c>
       <c r="P2" t="n">
-        <v>17179143432.6164</v>
+        <v>15392951527.0633</v>
       </c>
       <c r="Q2" t="n">
-        <v>26350504746.4666</v>
+        <v>17063945813.0441</v>
       </c>
       <c r="R2" t="n">
-        <v>21038285191.0765</v>
+        <v>20032195058.0326</v>
       </c>
       <c r="S2" t="n">
-        <v>12136537600.8691</v>
+        <v>19859886574.2107</v>
       </c>
       <c r="T2" t="n">
-        <v>19101156564.0055</v>
+        <v>16135339447.2681</v>
       </c>
       <c r="U2" t="n">
-        <v>22313626087.1781</v>
+        <v>9963152252.6733</v>
       </c>
       <c r="V2" t="n">
-        <v>24362236230.0382</v>
+        <v>12758475706.7261</v>
       </c>
       <c r="W2" t="n">
-        <v>15902868030.9416</v>
+        <v>10039359606.9708</v>
       </c>
       <c r="X2" t="n">
-        <v>15331980706.2751</v>
+        <v>6420739071.2267</v>
       </c>
       <c r="Y2" t="n">
-        <v>14963413758.3511</v>
+        <v>12898123253.4186</v>
       </c>
       <c r="Z2" t="n">
-        <v>21068542382.2664</v>
+        <v>24535144610.5107</v>
       </c>
       <c r="AA2" t="n">
-        <v>20567256712.2696</v>
+        <v>15867252285.3936</v>
       </c>
       <c r="AB2" t="n">
-        <v>16016936002.7564</v>
+        <v>21213551510.6334</v>
       </c>
       <c r="AC2" t="n">
-        <v>24918976245.8977</v>
+        <v>24377113970.2551</v>
       </c>
       <c r="AD2" t="n">
-        <v>12071973099.3044</v>
+        <v>28828585601.9584</v>
       </c>
       <c r="AE2" t="n">
-        <v>11795843927.1986</v>
+        <v>12794798413.2769</v>
       </c>
       <c r="AF2" t="n">
-        <v>7632916013.7201</v>
+        <v>13133505451.2744</v>
       </c>
       <c r="AG2" t="n">
-        <v>7573941620.9902</v>
+        <v>22358819646.0534</v>
       </c>
       <c r="AH2" t="n">
-        <v>5164473313.9406</v>
+        <v>15018798936.9328</v>
       </c>
       <c r="AI2" t="n">
-        <v>18414784994.1293</v>
+        <v>19882617783.4785</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20746067075.0706</v>
+        <v>14357823752.1115</v>
       </c>
       <c r="AK2" t="n">
-        <v>11258416282.2448</v>
+        <v>16807165403.7133</v>
       </c>
       <c r="AL2" t="n">
-        <v>12533171803.1735</v>
+        <v>14942731108.3748</v>
       </c>
       <c r="AM2" t="n">
-        <v>20417655606.3835</v>
+        <v>27320102092.3333</v>
       </c>
       <c r="AN2" t="n">
-        <v>21215617763.5854</v>
+        <v>24610311244.312</v>
       </c>
       <c r="AO2" t="n">
-        <v>18291872628.7466</v>
+        <v>19382404758.6013</v>
       </c>
       <c r="AP2" t="n">
-        <v>17469076193.6045</v>
+        <v>21846186151.8722</v>
       </c>
       <c r="AQ2" t="n">
-        <v>16010953366.4835</v>
+        <v>14613200341.3034</v>
       </c>
       <c r="AR2" t="n">
-        <v>22615376348.468</v>
+        <v>9461376861.464199</v>
       </c>
       <c r="AS2" t="n">
-        <v>14489182439.4679</v>
+        <v>12599624945.4585</v>
       </c>
       <c r="AT2" t="n">
-        <v>8250070199.5719</v>
+        <v>8076783285.4997</v>
       </c>
       <c r="AU2" t="n">
-        <v>14453449648.6791</v>
+        <v>18071792378.7765</v>
       </c>
       <c r="AV2" t="n">
-        <v>18460623674.5123</v>
+        <v>20852198023.3593</v>
       </c>
       <c r="AW2" t="n">
-        <v>22729019165.2792</v>
+        <v>16206962825.2747</v>
       </c>
       <c r="AX2" t="n">
-        <v>18713544908.9207</v>
+        <v>24665977568.2723</v>
       </c>
       <c r="AY2" t="n">
-        <v>15345847386.4234</v>
+        <v>22859481810.089</v>
       </c>
       <c r="AZ2" t="n">
-        <v>16804526227.0002</v>
+        <v>17246761627.1049</v>
       </c>
     </row>
     <row r="3" spans="1:52">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>22312296789.9277</v>
+        <v>6168697079.2422</v>
       </c>
       <c r="C3" t="n">
-        <v>20239141662.4417</v>
+        <v>6688370651.5435</v>
       </c>
       <c r="D3" t="n">
-        <v>20217021199.9114</v>
+        <v>5099434131.5633</v>
       </c>
       <c r="E3" t="n">
-        <v>10351823015.7945</v>
+        <v>7001854483.2285</v>
       </c>
       <c r="F3" t="n">
-        <v>18126771315.962</v>
+        <v>3180955506.0912</v>
       </c>
       <c r="G3" t="n">
-        <v>2810850249.9965</v>
+        <v>3988332244.0058</v>
       </c>
       <c r="H3" t="n">
-        <v>17461254995.0346</v>
+        <v>5824678408.6039</v>
       </c>
       <c r="I3" t="n">
-        <v>17467299789.2876</v>
+        <v>2313016043.2209</v>
       </c>
       <c r="J3" t="n">
-        <v>13806539060.802</v>
+        <v>7549249816.3451</v>
       </c>
       <c r="K3" t="n">
-        <v>21230728245.7429</v>
+        <v>6062893023.674</v>
       </c>
       <c r="L3" t="n">
-        <v>14741164313.0267</v>
+        <v>8111825394.3035</v>
       </c>
       <c r="M3" t="n">
-        <v>18985403747.4778</v>
+        <v>3163748153.3759</v>
       </c>
       <c r="N3" t="n">
-        <v>18136722554.0135</v>
+        <v>2293246733.5575</v>
       </c>
       <c r="O3" t="n">
-        <v>11884960430.9054</v>
+        <v>4309961677.6104</v>
       </c>
       <c r="P3" t="n">
-        <v>16201175123.7235</v>
+        <v>5156131130.4891</v>
       </c>
       <c r="Q3" t="n">
-        <v>25573652951.7771</v>
+        <v>3989345207.4564</v>
       </c>
       <c r="R3" t="n">
-        <v>20109981925.1324</v>
+        <v>5372680155.1132</v>
       </c>
       <c r="S3" t="n">
-        <v>11724234273.6139</v>
+        <v>7881968739.6814</v>
       </c>
       <c r="T3" t="n">
-        <v>18074122723.4503</v>
+        <v>5587587604.6378</v>
       </c>
       <c r="U3" t="n">
-        <v>21986093127.6635</v>
+        <v>4316567199.7672</v>
       </c>
       <c r="V3" t="n">
-        <v>18604400995.3379</v>
+        <v>5648611554.2711</v>
       </c>
       <c r="W3" t="n">
-        <v>14340602919.5277</v>
+        <v>3862984274.0274</v>
       </c>
       <c r="X3" t="n">
-        <v>15199039183.3842</v>
+        <v>1894898281.2192</v>
       </c>
       <c r="Y3" t="n">
-        <v>14650314161.2924</v>
+        <v>4989742775.7046</v>
       </c>
       <c r="Z3" t="n">
-        <v>17877726731.6664</v>
+        <v>2911037738.9022</v>
       </c>
       <c r="AA3" t="n">
-        <v>19430558338.728</v>
+        <v>5902827255.1322</v>
       </c>
       <c r="AB3" t="n">
-        <v>15742269799.3085</v>
+        <v>7552099157.1566</v>
       </c>
       <c r="AC3" t="n">
-        <v>24709262992.0687</v>
+        <v>11209489175.7325</v>
       </c>
       <c r="AD3" t="n">
-        <v>12071973099.3044</v>
+        <v>6101099967.3445</v>
       </c>
       <c r="AE3" t="n">
-        <v>11719364601.4543</v>
+        <v>5935919573.9846</v>
       </c>
       <c r="AF3" t="n">
-        <v>7458970481.295</v>
+        <v>5611642158.1801</v>
       </c>
       <c r="AG3" t="n">
-        <v>7573941620.9902</v>
+        <v>8283193984.4843</v>
       </c>
       <c r="AH3" t="n">
-        <v>4890906433.41</v>
+        <v>5460249815.1878</v>
       </c>
       <c r="AI3" t="n">
-        <v>18193163708.7587</v>
+        <v>5086462563.8147</v>
       </c>
       <c r="AJ3" t="n">
-        <v>20082071299.8984</v>
+        <v>3791115978.6592</v>
       </c>
       <c r="AK3" t="n">
-        <v>10722527088.2426</v>
+        <v>7677644966.9524</v>
       </c>
       <c r="AL3" t="n">
-        <v>10160167674.0951</v>
+        <v>2488308015.0647</v>
       </c>
       <c r="AM3" t="n">
-        <v>19679505797.9688</v>
+        <v>3460524062.8363</v>
       </c>
       <c r="AN3" t="n">
-        <v>15879337024.1529</v>
+        <v>6930203051.0328</v>
       </c>
       <c r="AO3" t="n">
-        <v>12286089595.8192</v>
+        <v>5810902611.62</v>
       </c>
       <c r="AP3" t="n">
-        <v>17299324445.0241</v>
+        <v>8869592927.5432</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15973414064.0649</v>
+        <v>7102757420.1636</v>
       </c>
       <c r="AR3" t="n">
-        <v>20558234005.3042</v>
+        <v>5120219034.4058</v>
       </c>
       <c r="AS3" t="n">
-        <v>12153047506.18</v>
+        <v>4747038897.2983</v>
       </c>
       <c r="AT3" t="n">
-        <v>6580750513.3188</v>
+        <v>4742463692.5007</v>
       </c>
       <c r="AU3" t="n">
-        <v>14425637848.3045</v>
+        <v>10297709435.0885</v>
       </c>
       <c r="AV3" t="n">
-        <v>17245806623.0266</v>
+        <v>7690992536.3136</v>
       </c>
       <c r="AW3" t="n">
-        <v>19751960591.8165</v>
+        <v>7567007405.1768</v>
       </c>
       <c r="AX3" t="n">
-        <v>18713544908.9207</v>
+        <v>13394706568.2</v>
       </c>
       <c r="AY3" t="n">
-        <v>14651013736.8786</v>
+        <v>8260872924.7059</v>
       </c>
       <c r="AZ3" t="n">
-        <v>15503616573.3161</v>
+        <v>5849257223.7243</v>
       </c>
     </row>
     <row r="4" spans="1:52">
       <c r="A4" s="1" t="n">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="B4" t="n">
-        <v>5064219948.9938</v>
+        <v>355940141.9796</v>
       </c>
       <c r="C4" t="n">
-        <v>5777133353.2839</v>
+        <v>2387791579.9296</v>
       </c>
       <c r="D4" t="n">
-        <v>5535833012.7851</v>
+        <v>1785800487.9115</v>
       </c>
       <c r="E4" t="n">
-        <v>3507156075.0243</v>
+        <v>76624755.69159999</v>
       </c>
       <c r="F4" t="n">
-        <v>3625921021.7276</v>
+        <v>153405372.1018</v>
       </c>
       <c r="G4" t="n">
-        <v>1267537680.4809</v>
+        <v>90363083.7199</v>
       </c>
       <c r="H4" t="n">
-        <v>5773741138.5071</v>
+        <v>292102641.4025</v>
       </c>
       <c r="I4" t="n">
-        <v>4241844141.3174</v>
+        <v>6700467.6702</v>
       </c>
       <c r="J4" t="n">
-        <v>4000863361.1694</v>
+        <v>68025905.28210001</v>
       </c>
       <c r="K4" t="n">
-        <v>2936971979.953</v>
+        <v>501497502.5559</v>
       </c>
       <c r="L4" t="n">
-        <v>6565294405.9828</v>
+        <v>1623434253.9398</v>
       </c>
       <c r="M4" t="n">
-        <v>2807169956.2553</v>
+        <v>346178548.2954</v>
       </c>
       <c r="N4" t="n">
-        <v>12249382727.6452</v>
+        <v>105404363.7916</v>
       </c>
       <c r="O4" t="n">
-        <v>1779366096.5152</v>
+        <v>124350802.232</v>
       </c>
       <c r="P4" t="n">
-        <v>3675841848.609</v>
+        <v>242242525.7556</v>
       </c>
       <c r="Q4" t="n">
-        <v>9785360678.6628</v>
+        <v>1034899232.4933</v>
       </c>
       <c r="R4" t="n">
-        <v>9411791887.9722</v>
+        <v>21419829.4163</v>
       </c>
       <c r="S4" t="n">
-        <v>1752417748.3459</v>
+        <v>360018678.6827</v>
       </c>
       <c r="T4" t="n">
-        <v>7218659015.0722</v>
+        <v>217173606.5164</v>
       </c>
       <c r="U4" t="n">
-        <v>11873110062.0434</v>
+        <v>71084874.4487</v>
       </c>
       <c r="V4" t="n">
-        <v>4166960000.9458</v>
+        <v>117367637.3278</v>
       </c>
       <c r="W4" t="n">
-        <v>4282332946.4092</v>
+        <v>29730460.1688</v>
       </c>
       <c r="X4" t="n">
-        <v>6967860734.08</v>
+        <v>69136276.19939999</v>
       </c>
       <c r="Y4" t="n">
-        <v>5777638278.9746</v>
+        <v>16543853.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>8080442877.2327</v>
+        <v>346151156.8317</v>
       </c>
       <c r="AA4" t="n">
-        <v>5801697149.0834</v>
+        <v>388781139.545</v>
       </c>
       <c r="AB4" t="n">
-        <v>6221996659.2556</v>
+        <v>2109683403.0845</v>
       </c>
       <c r="AC4" t="n">
-        <v>6662016426.5328</v>
+        <v>2621407395.3344</v>
       </c>
       <c r="AD4" t="n">
-        <v>2782763151.1064</v>
+        <v>1948110324.2747</v>
       </c>
       <c r="AE4" t="n">
-        <v>4006033646.1837</v>
+        <v>133290070.1593</v>
       </c>
       <c r="AF4" t="n">
-        <v>5263245188.3311</v>
+        <v>400028452.728</v>
       </c>
       <c r="AG4" t="n">
-        <v>3719763893.2446</v>
+        <v>280354461.8739</v>
       </c>
       <c r="AH4" t="n">
-        <v>2669213534.8217</v>
+        <v>1524139844.9002</v>
       </c>
       <c r="AI4" t="n">
-        <v>4997479544.9715</v>
+        <v>9563635.413000001</v>
       </c>
       <c r="AJ4" t="n">
-        <v>4828303063.2276</v>
+        <v>870381904.8291</v>
       </c>
       <c r="AK4" t="n">
-        <v>6363751039.6055</v>
+        <v>248985591.569</v>
       </c>
       <c r="AL4" t="n">
-        <v>2719722436.2943</v>
+        <v>33336283.4478</v>
       </c>
       <c r="AM4" t="n">
-        <v>5905681632.1247</v>
+        <v>51625563.8179</v>
       </c>
       <c r="AN4" t="n">
-        <v>3268772394.6442</v>
+        <v>107383630.8842</v>
       </c>
       <c r="AO4" t="n">
-        <v>3005506588.4781</v>
+        <v>3327552332.9334</v>
       </c>
       <c r="AP4" t="n">
-        <v>5864345058.7564</v>
+        <v>588821826.0436</v>
       </c>
       <c r="AQ4" t="n">
-        <v>7725926112.8171</v>
+        <v>3755597614.9866</v>
       </c>
       <c r="AR4" t="n">
-        <v>9398297276.102301</v>
+        <v>122728284.2482</v>
       </c>
       <c r="AS4" t="n">
-        <v>8372117521.8262</v>
+        <v>95035762.6939</v>
       </c>
       <c r="AT4" t="n">
-        <v>2110197162.7278</v>
+        <v>2816480897.8799</v>
       </c>
       <c r="AU4" t="n">
-        <v>3445785764.273</v>
+        <v>271793310.1389</v>
       </c>
       <c r="AV4" t="n">
-        <v>5223049090.6294</v>
+        <v>54278558.8681</v>
       </c>
       <c r="AW4" t="n">
-        <v>5355817566.4952</v>
+        <v>1991388165.6941</v>
       </c>
       <c r="AX4" t="n">
-        <v>4674250587.9985</v>
+        <v>6344080599.4726</v>
       </c>
       <c r="AY4" t="n">
-        <v>5437746060.4544</v>
+        <v>3539732449.8325</v>
       </c>
       <c r="AZ4" t="n">
-        <v>5177009192.5634</v>
+        <v>881558990.8539</v>
       </c>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" s="1" t="n">
-        <v>167</v>
+        <v>1641</v>
       </c>
       <c r="B5" t="n">
-        <v>7900156.9956</v>
+        <v>11341.2733</v>
       </c>
       <c r="C5" t="n">
-        <v>1387968.8416</v>
+        <v>7352.9571</v>
       </c>
       <c r="D5" t="n">
-        <v>15397082.8666</v>
+        <v>9889.683800000001</v>
       </c>
       <c r="E5" t="n">
-        <v>2142947.1788</v>
+        <v>27.1254</v>
       </c>
       <c r="F5" t="n">
-        <v>19266311.731</v>
+        <v>3828.5609</v>
       </c>
       <c r="G5" t="n">
-        <v>2393321.8361</v>
+        <v>554.12</v>
       </c>
       <c r="H5" t="n">
-        <v>51001635.5836</v>
+        <v>1948.0421</v>
       </c>
       <c r="I5" t="n">
-        <v>22061276.6706</v>
+        <v>215.5588</v>
       </c>
       <c r="J5" t="n">
-        <v>2207971.0893</v>
+        <v>7422.1397</v>
       </c>
       <c r="K5" t="n">
-        <v>20604105.1141</v>
+        <v>920.0326</v>
       </c>
       <c r="L5" t="n">
-        <v>6447733.3312</v>
+        <v>11797.3196</v>
       </c>
       <c r="M5" t="n">
-        <v>1660138.3017</v>
+        <v>7513.3144</v>
       </c>
       <c r="N5" t="n">
-        <v>2091001.6336</v>
+        <v>438.887</v>
       </c>
       <c r="O5" t="n">
-        <v>1408993.1856</v>
+        <v>6949.5317</v>
       </c>
       <c r="P5" t="n">
-        <v>4545695.7852</v>
+        <v>167.9741</v>
       </c>
       <c r="Q5" t="n">
-        <v>10291269.0609</v>
+        <v>11104.2355</v>
       </c>
       <c r="R5" t="n">
-        <v>2445225.4624</v>
+        <v>375.234</v>
       </c>
       <c r="S5" t="n">
-        <v>2211554.054</v>
+        <v>427.2698</v>
       </c>
       <c r="T5" t="n">
-        <v>34433054.4142</v>
+        <v>4977.8449</v>
       </c>
       <c r="U5" t="n">
-        <v>21923010.853</v>
+        <v>12.4972</v>
       </c>
       <c r="V5" t="n">
-        <v>2523601.2677</v>
+        <v>3808.8616</v>
       </c>
       <c r="W5" t="n">
-        <v>2883121.976</v>
+        <v>3964.3764</v>
       </c>
       <c r="X5" t="n">
-        <v>9795799.518300001</v>
+        <v>4399.9354</v>
       </c>
       <c r="Y5" t="n">
-        <v>3246752.2896</v>
+        <v>759.37</v>
       </c>
       <c r="Z5" t="n">
-        <v>2582657.7889</v>
+        <v>469.1364</v>
       </c>
       <c r="AA5" t="n">
-        <v>17532466.4079</v>
+        <v>8177.0561</v>
       </c>
       <c r="AB5" t="n">
-        <v>3369081.4891</v>
+        <v>69.7255</v>
       </c>
       <c r="AC5" t="n">
-        <v>487698544.4715</v>
+        <v>2644.8725</v>
       </c>
       <c r="AD5" t="n">
-        <v>43409724.7752</v>
+        <v>11585.0014</v>
       </c>
       <c r="AE5" t="n">
-        <v>4266127.413</v>
+        <v>14.8067</v>
       </c>
       <c r="AF5" t="n">
-        <v>11362314.6654</v>
+        <v>6540.11</v>
       </c>
       <c r="AG5" t="n">
-        <v>2368290.8688</v>
+        <v>7978.4286</v>
       </c>
       <c r="AH5" t="n">
-        <v>2014535.317</v>
+        <v>1353.9104</v>
       </c>
       <c r="AI5" t="n">
-        <v>1095599.0892</v>
+        <v>706.3908</v>
       </c>
       <c r="AJ5" t="n">
-        <v>50367416.4622</v>
+        <v>3763.4922</v>
       </c>
       <c r="AK5" t="n">
-        <v>14070800.9722</v>
+        <v>7761.2285</v>
       </c>
       <c r="AL5" t="n">
-        <v>15317743.3033</v>
+        <v>4472.7841</v>
       </c>
       <c r="AM5" t="n">
-        <v>5017043.6287</v>
+        <v>2632.9828</v>
       </c>
       <c r="AN5" t="n">
-        <v>6474918.2226</v>
+        <v>6782.5785</v>
       </c>
       <c r="AO5" t="n">
-        <v>10013034.6649</v>
+        <v>7300.072</v>
       </c>
       <c r="AP5" t="n">
-        <v>11585740.4637</v>
+        <v>1397.4227</v>
       </c>
       <c r="AQ5" t="n">
-        <v>10256375.8962</v>
+        <v>9534.485699999999</v>
       </c>
       <c r="AR5" t="n">
-        <v>4716509.7508</v>
+        <v>495.3911</v>
       </c>
       <c r="AS5" t="n">
-        <v>371259317.1217</v>
+        <v>551.5189</v>
       </c>
       <c r="AT5" t="n">
-        <v>1902449.7352</v>
+        <v>11274.0561</v>
       </c>
       <c r="AU5" t="n">
-        <v>8614991.770199999</v>
+        <v>5387.2831</v>
       </c>
       <c r="AV5" t="n">
-        <v>3731907.1795</v>
+        <v>49.2818</v>
       </c>
       <c r="AW5" t="n">
-        <v>1514327.8133</v>
+        <v>7831.3071</v>
       </c>
       <c r="AX5" t="n">
-        <v>3206761.0673</v>
+        <v>9289.3364</v>
       </c>
       <c r="AY5" t="n">
-        <v>10936158.6962</v>
+        <v>949.2851000000001</v>
       </c>
       <c r="AZ5" t="n">
-        <v>26920466.3943</v>
+        <v>4384.1618</v>
       </c>
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="1" t="n">
-        <v>333</v>
+        <v>3283</v>
       </c>
       <c r="B6" t="n">
-        <v>9117.7716</v>
+        <v>11333.3723</v>
       </c>
       <c r="C6" t="n">
-        <v>7534.6125</v>
+        <v>7347.3022</v>
       </c>
       <c r="D6" t="n">
-        <v>31505.5576</v>
+        <v>9881.218699999999</v>
       </c>
       <c r="E6" t="n">
-        <v>431.6453</v>
+        <v>27.1254</v>
       </c>
       <c r="F6" t="n">
-        <v>4127.9613</v>
+        <v>3822.2856</v>
       </c>
       <c r="G6" t="n">
-        <v>4380.3108</v>
+        <v>554.0540999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>9869.787899999999</v>
+        <v>1947.8017</v>
       </c>
       <c r="I6" t="n">
-        <v>140.2876</v>
+        <v>215.5054</v>
       </c>
       <c r="J6" t="n">
-        <v>3680.9316</v>
+        <v>7422.0556</v>
       </c>
       <c r="K6" t="n">
-        <v>3653.6239</v>
+        <v>919.7652</v>
       </c>
       <c r="L6" t="n">
-        <v>2915.6209</v>
+        <v>11790.3821</v>
       </c>
       <c r="M6" t="n">
-        <v>2352.0757</v>
+        <v>7510.8565</v>
       </c>
       <c r="N6" t="n">
-        <v>1095.6676</v>
+        <v>438.8714</v>
       </c>
       <c r="O6" t="n">
-        <v>3466.9217</v>
+        <v>6945.6314</v>
       </c>
       <c r="P6" t="n">
-        <v>7365.1085</v>
+        <v>167.9583</v>
       </c>
       <c r="Q6" t="n">
-        <v>9783.467000000001</v>
+        <v>11101.0058</v>
       </c>
       <c r="R6" t="n">
-        <v>4685.7319</v>
+        <v>374.783</v>
       </c>
       <c r="S6" t="n">
-        <v>12287.0167</v>
+        <v>427.1433</v>
       </c>
       <c r="T6" t="n">
-        <v>10895.3546</v>
+        <v>4976.5303</v>
       </c>
       <c r="U6" t="n">
-        <v>3976.3474</v>
+        <v>12.4393</v>
       </c>
       <c r="V6" t="n">
-        <v>73.0231</v>
+        <v>3807.5709</v>
       </c>
       <c r="W6" t="n">
-        <v>4511.0813</v>
+        <v>3963.9743</v>
       </c>
       <c r="X6" t="n">
-        <v>1120.6134</v>
+        <v>4398.222</v>
       </c>
       <c r="Y6" t="n">
-        <v>2751.2993</v>
+        <v>759.2299</v>
       </c>
       <c r="Z6" t="n">
-        <v>8104.0982</v>
+        <v>469.122</v>
       </c>
       <c r="AA6" t="n">
-        <v>4878.5978</v>
+        <v>8174.8952</v>
       </c>
       <c r="AB6" t="n">
-        <v>8603.375</v>
+        <v>69.7255</v>
       </c>
       <c r="AC6" t="n">
-        <v>126866016.6123</v>
+        <v>2643.9461</v>
       </c>
       <c r="AD6" t="n">
-        <v>5426.9915</v>
+        <v>11581.1586</v>
       </c>
       <c r="AE6" t="n">
-        <v>11897.3506</v>
+        <v>3.7887</v>
       </c>
       <c r="AF6" t="n">
-        <v>3631.7114</v>
+        <v>6538.343</v>
       </c>
       <c r="AG6" t="n">
-        <v>778.7119</v>
+        <v>7977.6875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1446.7437</v>
+        <v>1353.9104</v>
       </c>
       <c r="AI6" t="n">
-        <v>3948.2314</v>
+        <v>705.9941</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20445.6947</v>
+        <v>3761.0115</v>
       </c>
       <c r="AK6" t="n">
-        <v>5828.1798</v>
+        <v>7755.7519</v>
       </c>
       <c r="AL6" t="n">
-        <v>6899.3156</v>
+        <v>4470.6575</v>
       </c>
       <c r="AM6" t="n">
-        <v>1420.0574</v>
+        <v>2632.9469</v>
       </c>
       <c r="AN6" t="n">
-        <v>4114.6343</v>
+        <v>6780.2743</v>
       </c>
       <c r="AO6" t="n">
-        <v>3524.5498</v>
+        <v>7293.0325</v>
       </c>
       <c r="AP6" t="n">
-        <v>6293.5566</v>
+        <v>1397.2451</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7796.208</v>
+        <v>9533.214599999999</v>
       </c>
       <c r="AR6" t="n">
-        <v>8986.6911</v>
+        <v>495.3136</v>
       </c>
       <c r="AS6" t="n">
-        <v>120520.9635</v>
+        <v>551.4611</v>
       </c>
       <c r="AT6" t="n">
-        <v>5411.9808</v>
+        <v>11264.0996</v>
       </c>
       <c r="AU6" t="n">
-        <v>2664.1407</v>
+        <v>5381.1938</v>
       </c>
       <c r="AV6" t="n">
-        <v>3283.0462</v>
+        <v>49.2606</v>
       </c>
       <c r="AW6" t="n">
-        <v>3914.8218</v>
+        <v>7830.8879</v>
       </c>
       <c r="AX6" t="n">
-        <v>8269.1558</v>
+        <v>9272.059999999999</v>
       </c>
       <c r="AY6" t="n">
-        <v>8350.7075</v>
+        <v>948.9167</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2578648.5431</v>
+        <v>4381.6197</v>
       </c>
     </row>
     <row r="7" spans="1:52">
       <c r="A7" s="1" t="n">
-        <v>500</v>
+        <v>4924</v>
       </c>
       <c r="B7" t="n">
-        <v>7724.3385</v>
+        <v>11329.976</v>
       </c>
       <c r="C7" t="n">
-        <v>7493.2357</v>
+        <v>7340.8287</v>
       </c>
       <c r="D7" t="n">
-        <v>5502.6283</v>
+        <v>9866.486999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3579</v>
+        <v>27.1254</v>
       </c>
       <c r="F7" t="n">
-        <v>2234.8871</v>
+        <v>3821.1333</v>
       </c>
       <c r="G7" t="n">
-        <v>3982.4489</v>
+        <v>554.0540999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2400.6692</v>
+        <v>1947.3187</v>
       </c>
       <c r="I7" t="n">
-        <v>9.650700000000001</v>
+        <v>215.5042</v>
       </c>
       <c r="J7" t="n">
-        <v>3517.1625</v>
+        <v>7421.0361</v>
       </c>
       <c r="K7" t="n">
-        <v>456.7377</v>
+        <v>919.7652</v>
       </c>
       <c r="L7" t="n">
-        <v>244.3231</v>
+        <v>11778.4738</v>
       </c>
       <c r="M7" t="n">
-        <v>2332.2987</v>
+        <v>7510.2654</v>
       </c>
       <c r="N7" t="n">
-        <v>354.2079</v>
+        <v>438.8524</v>
       </c>
       <c r="O7" t="n">
-        <v>3438.4648</v>
+        <v>6941.4189</v>
       </c>
       <c r="P7" t="n">
-        <v>7191.7351</v>
+        <v>167.8927</v>
       </c>
       <c r="Q7" t="n">
-        <v>8994.254800000001</v>
+        <v>11100.3473</v>
       </c>
       <c r="R7" t="n">
-        <v>4160.9336</v>
+        <v>374.783</v>
       </c>
       <c r="S7" t="n">
-        <v>11643.2853</v>
+        <v>427.1433</v>
       </c>
       <c r="T7" t="n">
-        <v>10515.2868</v>
+        <v>4976.116</v>
       </c>
       <c r="U7" t="n">
-        <v>2812.4397</v>
+        <v>12.4393</v>
       </c>
       <c r="V7" t="n">
-        <v>55.9556</v>
+        <v>3807.5709</v>
       </c>
       <c r="W7" t="n">
-        <v>4405.7558</v>
+        <v>3962.4844</v>
       </c>
       <c r="X7" t="n">
-        <v>247.0338</v>
+        <v>4397.9147</v>
       </c>
       <c r="Y7" t="n">
-        <v>2335.7278</v>
+        <v>759.1572</v>
       </c>
       <c r="Z7" t="n">
-        <v>8058.5385</v>
+        <v>469.0467</v>
       </c>
       <c r="AA7" t="n">
-        <v>1369.7183</v>
+        <v>8164.8033</v>
       </c>
       <c r="AB7" t="n">
-        <v>8445.247100000001</v>
+        <v>69.7052</v>
       </c>
       <c r="AC7" t="n">
-        <v>89394609.06209999</v>
+        <v>2643.6584</v>
       </c>
       <c r="AD7" t="n">
-        <v>4821.1953</v>
+        <v>11575.6374</v>
       </c>
       <c r="AE7" t="n">
-        <v>11762.0654</v>
+        <v>3.7829</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.6486</v>
+        <v>6535.7582</v>
       </c>
       <c r="AG7" t="n">
-        <v>704.7862</v>
+        <v>7976.5971</v>
       </c>
       <c r="AH7" t="n">
-        <v>770.8144</v>
+        <v>1352.9535</v>
       </c>
       <c r="AI7" t="n">
-        <v>3926.3347</v>
+        <v>705.6172</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6619.3109</v>
+        <v>3759.8092</v>
       </c>
       <c r="AK7" t="n">
-        <v>2755.6731</v>
+        <v>7753.3584</v>
       </c>
       <c r="AL7" t="n">
-        <v>6209.3602</v>
+        <v>4469.1252</v>
       </c>
       <c r="AM7" t="n">
-        <v>1321.0664</v>
+        <v>2631.8795</v>
       </c>
       <c r="AN7" t="n">
-        <v>3944.2543</v>
+        <v>6776.7896</v>
       </c>
       <c r="AO7" t="n">
-        <v>2855.5723</v>
+        <v>7286.3933</v>
       </c>
       <c r="AP7" t="n">
-        <v>12.3184</v>
+        <v>1396.9608</v>
       </c>
       <c r="AQ7" t="n">
-        <v>5733.5636</v>
+        <v>9529.7161</v>
       </c>
       <c r="AR7" t="n">
-        <v>7105.1083</v>
+        <v>495.2073</v>
       </c>
       <c r="AS7" t="n">
-        <v>3886.9747</v>
+        <v>551.4611</v>
       </c>
       <c r="AT7" t="n">
-        <v>5120.6523</v>
+        <v>11259.5158</v>
       </c>
       <c r="AU7" t="n">
-        <v>453.4282</v>
+        <v>5376.1378</v>
       </c>
       <c r="AV7" t="n">
-        <v>2800.0842</v>
+        <v>49.2563</v>
       </c>
       <c r="AW7" t="n">
-        <v>3670.4659</v>
+        <v>7828.2774</v>
       </c>
       <c r="AX7" t="n">
-        <v>8223.2637</v>
+        <v>9269.7186</v>
       </c>
       <c r="AY7" t="n">
-        <v>7504.7472</v>
+        <v>948.8529</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1788846.076</v>
+        <v>4379.5621</v>
       </c>
     </row>
     <row r="8" spans="1:52">
       <c r="A8" s="1" t="n">
-        <v>666</v>
+        <v>6566</v>
       </c>
       <c r="B8" t="n">
-        <v>7717.6228</v>
+        <v>11323.7344</v>
       </c>
       <c r="C8" t="n">
-        <v>7492.4119</v>
+        <v>7333.6325</v>
       </c>
       <c r="D8" t="n">
-        <v>5499.7868</v>
+        <v>9863.5275</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1394</v>
+        <v>27.0961</v>
       </c>
       <c r="F8" t="n">
-        <v>2233.8096</v>
+        <v>3816.3082</v>
       </c>
       <c r="G8" t="n">
-        <v>3981.9696</v>
+        <v>554.0540999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2399.7735</v>
+        <v>1947.2739</v>
       </c>
       <c r="I8" t="n">
-        <v>9.552099999999999</v>
+        <v>215.483</v>
       </c>
       <c r="J8" t="n">
-        <v>3513.6565</v>
+        <v>7417.9068</v>
       </c>
       <c r="K8" t="n">
-        <v>456.315</v>
+        <v>919.7538</v>
       </c>
       <c r="L8" t="n">
-        <v>243.7584</v>
+        <v>11775.0032</v>
       </c>
       <c r="M8" t="n">
-        <v>2331.2428</v>
+        <v>7506.6071</v>
       </c>
       <c r="N8" t="n">
-        <v>353.9432</v>
+        <v>438.8524</v>
       </c>
       <c r="O8" t="n">
-        <v>3436.991</v>
+        <v>6939.1585</v>
       </c>
       <c r="P8" t="n">
-        <v>7186.0663</v>
+        <v>167.8927</v>
       </c>
       <c r="Q8" t="n">
-        <v>8988.24</v>
+        <v>11099.1716</v>
       </c>
       <c r="R8" t="n">
-        <v>4159.4882</v>
+        <v>374.6471</v>
       </c>
       <c r="S8" t="n">
-        <v>11640.5231</v>
+        <v>427.1433</v>
       </c>
       <c r="T8" t="n">
-        <v>10513.6426</v>
+        <v>4973.0072</v>
       </c>
       <c r="U8" t="n">
-        <v>2811.5061</v>
+        <v>12.4393</v>
       </c>
       <c r="V8" t="n">
-        <v>55.8265</v>
+        <v>3807.3874</v>
       </c>
       <c r="W8" t="n">
-        <v>4402.7826</v>
+        <v>3960.4853</v>
       </c>
       <c r="X8" t="n">
-        <v>246.6783</v>
+        <v>4397.9147</v>
       </c>
       <c r="Y8" t="n">
-        <v>2335.3882</v>
+        <v>759.1541999999999</v>
       </c>
       <c r="Z8" t="n">
-        <v>8056.3009</v>
+        <v>469.0293</v>
       </c>
       <c r="AA8" t="n">
-        <v>1369.1392</v>
+        <v>8155.9054</v>
       </c>
       <c r="AB8" t="n">
-        <v>8442.831899999999</v>
+        <v>69.68600000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>59803.1148</v>
+        <v>2641.8576</v>
       </c>
       <c r="AD8" t="n">
-        <v>4818.0655</v>
+        <v>11553.4655</v>
       </c>
       <c r="AE8" t="n">
-        <v>11754.7343</v>
+        <v>3.7767</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.3034</v>
+        <v>6534.2987</v>
       </c>
       <c r="AG8" t="n">
-        <v>704.4008</v>
+        <v>7976.4462</v>
       </c>
       <c r="AH8" t="n">
-        <v>770.5196999999999</v>
+        <v>1352.8485</v>
       </c>
       <c r="AI8" t="n">
-        <v>3924.8688</v>
+        <v>705.6172</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6617.1666</v>
+        <v>3759.632</v>
       </c>
       <c r="AK8" t="n">
-        <v>2754.7541</v>
+        <v>7748.6393</v>
       </c>
       <c r="AL8" t="n">
-        <v>6205.9766</v>
+        <v>4468.065</v>
       </c>
       <c r="AM8" t="n">
-        <v>1320.9069</v>
+        <v>2631.3979</v>
       </c>
       <c r="AN8" t="n">
-        <v>3935.7806</v>
+        <v>6772.247</v>
       </c>
       <c r="AO8" t="n">
-        <v>2855.1837</v>
+        <v>7283.8205</v>
       </c>
       <c r="AP8" t="n">
-        <v>11.0572</v>
+        <v>1396.9582</v>
       </c>
       <c r="AQ8" t="n">
-        <v>5731.4024</v>
+        <v>9526.244199999999</v>
       </c>
       <c r="AR8" t="n">
-        <v>7103.6427</v>
+        <v>495.2073</v>
       </c>
       <c r="AS8" t="n">
-        <v>3864.6739</v>
+        <v>551.4611</v>
       </c>
       <c r="AT8" t="n">
-        <v>5119.3699</v>
+        <v>11256.6753</v>
       </c>
       <c r="AU8" t="n">
-        <v>453.1185</v>
+        <v>5376.1378</v>
       </c>
       <c r="AV8" t="n">
-        <v>2798.6057</v>
+        <v>49.2475</v>
       </c>
       <c r="AW8" t="n">
-        <v>3669.6942</v>
+        <v>7827.1848</v>
       </c>
       <c r="AX8" t="n">
-        <v>8222.455599999999</v>
+        <v>9265.73</v>
       </c>
       <c r="AY8" t="n">
-        <v>7503.4309</v>
+        <v>948.6016</v>
       </c>
       <c r="AZ8" t="n">
-        <v>20338.2924</v>
+        <v>4377.5563</v>
       </c>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="1" t="n">
-        <v>833</v>
+        <v>8207</v>
       </c>
       <c r="B9" t="n">
-        <v>7715.8396</v>
+        <v>11318.0608</v>
       </c>
       <c r="C9" t="n">
-        <v>7490.1373</v>
+        <v>7330.8475</v>
       </c>
       <c r="D9" t="n">
-        <v>5498.3922</v>
+        <v>9857.775600000001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0615</v>
+        <v>27.0848</v>
       </c>
       <c r="F9" t="n">
-        <v>2233.1849</v>
+        <v>3813.814</v>
       </c>
       <c r="G9" t="n">
-        <v>3981.3882</v>
+        <v>554.0540999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2398.2379</v>
+        <v>1947.1192</v>
       </c>
       <c r="I9" t="n">
-        <v>9.552099999999999</v>
+        <v>215.4537</v>
       </c>
       <c r="J9" t="n">
-        <v>3511.5745</v>
+        <v>7414.9924</v>
       </c>
       <c r="K9" t="n">
-        <v>456.2518</v>
+        <v>919.7538</v>
       </c>
       <c r="L9" t="n">
-        <v>243.7113</v>
+        <v>11763.9829</v>
       </c>
       <c r="M9" t="n">
-        <v>2330.9655</v>
+        <v>7505.1549</v>
       </c>
       <c r="N9" t="n">
-        <v>353.9315</v>
+        <v>438.8524</v>
       </c>
       <c r="O9" t="n">
-        <v>3434.8998</v>
+        <v>6938.432</v>
       </c>
       <c r="P9" t="n">
-        <v>7180.6094</v>
+        <v>167.8927</v>
       </c>
       <c r="Q9" t="n">
-        <v>8984.688899999999</v>
+        <v>11076.0982</v>
       </c>
       <c r="R9" t="n">
-        <v>4157.4886</v>
+        <v>374.4602</v>
       </c>
       <c r="S9" t="n">
-        <v>11635.8825</v>
+        <v>427.1433</v>
       </c>
       <c r="T9" t="n">
-        <v>10511.319</v>
+        <v>4968.956</v>
       </c>
       <c r="U9" t="n">
-        <v>2810.9363</v>
+        <v>12.4393</v>
       </c>
       <c r="V9" t="n">
-        <v>55.8265</v>
+        <v>3807.1211</v>
       </c>
       <c r="W9" t="n">
-        <v>4402.7501</v>
+        <v>3960.4561</v>
       </c>
       <c r="X9" t="n">
-        <v>246.6567</v>
+        <v>4397.5118</v>
       </c>
       <c r="Y9" t="n">
-        <v>2334.894</v>
+        <v>759.1541999999999</v>
       </c>
       <c r="Z9" t="n">
-        <v>8054.8094</v>
+        <v>468.8924</v>
       </c>
       <c r="AA9" t="n">
-        <v>1368.9476</v>
+        <v>8147.4657</v>
       </c>
       <c r="AB9" t="n">
-        <v>8440.116</v>
+        <v>69.6482</v>
       </c>
       <c r="AC9" t="n">
-        <v>6446.4567</v>
+        <v>2640.7336</v>
       </c>
       <c r="AD9" t="n">
-        <v>4814.2923</v>
+        <v>11537.2658</v>
       </c>
       <c r="AE9" t="n">
-        <v>11747.528</v>
+        <v>3.7763</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.2597</v>
+        <v>6531.7902</v>
       </c>
       <c r="AG9" t="n">
-        <v>704.3107</v>
+        <v>7969.1166</v>
       </c>
       <c r="AH9" t="n">
-        <v>770.5196999999999</v>
+        <v>1352.8357</v>
       </c>
       <c r="AI9" t="n">
-        <v>3923.9934</v>
+        <v>705.598</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6615.1488</v>
+        <v>3758.6867</v>
       </c>
       <c r="AK9" t="n">
-        <v>2754.6235</v>
+        <v>7748.2202</v>
       </c>
       <c r="AL9" t="n">
-        <v>6205.1385</v>
+        <v>4466.9324</v>
       </c>
       <c r="AM9" t="n">
-        <v>1320.8373</v>
+        <v>2631.3039</v>
       </c>
       <c r="AN9" t="n">
-        <v>3935.7806</v>
+        <v>6743.689</v>
       </c>
       <c r="AO9" t="n">
-        <v>2854.4519</v>
+        <v>7282.8697</v>
       </c>
       <c r="AP9" t="n">
-        <v>11.0385</v>
+        <v>1396.9355</v>
       </c>
       <c r="AQ9" t="n">
-        <v>5728.9055</v>
+        <v>9525.114600000001</v>
       </c>
       <c r="AR9" t="n">
-        <v>7099.8612</v>
+        <v>495.1376</v>
       </c>
       <c r="AS9" t="n">
-        <v>3862.4477</v>
+        <v>551.4074000000001</v>
       </c>
       <c r="AT9" t="n">
-        <v>5117.0023</v>
+        <v>11250.3104</v>
       </c>
       <c r="AU9" t="n">
-        <v>453.0149</v>
+        <v>5373.1205</v>
       </c>
       <c r="AV9" t="n">
-        <v>2797.7264</v>
+        <v>49.2402</v>
       </c>
       <c r="AW9" t="n">
-        <v>3667.4684</v>
+        <v>7824.314</v>
       </c>
       <c r="AX9" t="n">
-        <v>8221.7451</v>
+        <v>9256.171200000001</v>
       </c>
       <c r="AY9" t="n">
-        <v>7501.792</v>
+        <v>948.5871</v>
       </c>
       <c r="AZ9" t="n">
-        <v>13018.865</v>
+        <v>4374.5155</v>
       </c>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="1" t="n">
-        <v>1000</v>
+        <v>9848</v>
       </c>
       <c r="B10" t="n">
-        <v>7714.3366</v>
+        <v>11297.7497</v>
       </c>
       <c r="C10" t="n">
-        <v>7475.975</v>
+        <v>7328.0696</v>
       </c>
       <c r="D10" t="n">
-        <v>5495.7835</v>
+        <v>9855.0759</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0615</v>
+        <v>27.0839</v>
       </c>
       <c r="F10" t="n">
-        <v>2231.5179</v>
+        <v>3812.1303</v>
       </c>
       <c r="G10" t="n">
-        <v>3980.2326</v>
+        <v>554.0540999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2398.0896</v>
+        <v>1947.1192</v>
       </c>
       <c r="I10" t="n">
-        <v>9.5403</v>
+        <v>215.4503</v>
       </c>
       <c r="J10" t="n">
-        <v>3509.0032</v>
+        <v>7405.4522</v>
       </c>
       <c r="K10" t="n">
-        <v>456.2518</v>
+        <v>919.7538</v>
       </c>
       <c r="L10" t="n">
-        <v>243.6951</v>
+        <v>11760.6739</v>
       </c>
       <c r="M10" t="n">
-        <v>2330.7334</v>
+        <v>7499.1956</v>
       </c>
       <c r="N10" t="n">
-        <v>353.9315</v>
+        <v>438.8524</v>
       </c>
       <c r="O10" t="n">
-        <v>3434.1982</v>
+        <v>6938.0061</v>
       </c>
       <c r="P10" t="n">
-        <v>7178.3036</v>
+        <v>167.8831</v>
       </c>
       <c r="Q10" t="n">
-        <v>8983.265100000001</v>
+        <v>11072.8972</v>
       </c>
       <c r="R10" t="n">
-        <v>4153.8428</v>
+        <v>374.4113</v>
       </c>
       <c r="S10" t="n">
-        <v>11633.7637</v>
+        <v>427.1433</v>
       </c>
       <c r="T10" t="n">
-        <v>10497.2907</v>
+        <v>4968.5662</v>
       </c>
       <c r="U10" t="n">
-        <v>2810.5352</v>
+        <v>12.4393</v>
       </c>
       <c r="V10" t="n">
-        <v>55.8265</v>
+        <v>3805.5999</v>
       </c>
       <c r="W10" t="n">
-        <v>4400.9521</v>
+        <v>3960.4407</v>
       </c>
       <c r="X10" t="n">
-        <v>246.6204</v>
+        <v>4396.5176</v>
       </c>
       <c r="Y10" t="n">
-        <v>2334.8106</v>
+        <v>759.1541999999999</v>
       </c>
       <c r="Z10" t="n">
-        <v>8048.8761</v>
+        <v>468.8725</v>
       </c>
       <c r="AA10" t="n">
-        <v>1368.006</v>
+        <v>8146.3038</v>
       </c>
       <c r="AB10" t="n">
-        <v>8437.2844</v>
+        <v>69.6482</v>
       </c>
       <c r="AC10" t="n">
-        <v>6441.7949</v>
+        <v>2639.9527</v>
       </c>
       <c r="AD10" t="n">
-        <v>4809.5316</v>
+        <v>11534.0014</v>
       </c>
       <c r="AE10" t="n">
-        <v>11744.9286</v>
+        <v>3.7763</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.2485</v>
+        <v>6526.3492</v>
       </c>
       <c r="AG10" t="n">
-        <v>704.2144</v>
+        <v>7959.8614</v>
       </c>
       <c r="AH10" t="n">
-        <v>770.3952</v>
+        <v>1352.8296</v>
       </c>
       <c r="AI10" t="n">
-        <v>3923.7088</v>
+        <v>705.5865</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6606.4836</v>
+        <v>3758.1847</v>
       </c>
       <c r="AK10" t="n">
-        <v>2754.1148</v>
+        <v>7745.0269</v>
       </c>
       <c r="AL10" t="n">
-        <v>6203.8259</v>
+        <v>4466.4507</v>
       </c>
       <c r="AM10" t="n">
-        <v>1320.7489</v>
+        <v>2630.9104</v>
       </c>
       <c r="AN10" t="n">
-        <v>3935.1763</v>
+        <v>6738.0078</v>
       </c>
       <c r="AO10" t="n">
-        <v>2853.1756</v>
+        <v>7278.0604</v>
       </c>
       <c r="AP10" t="n">
-        <v>10.9863</v>
+        <v>1396.8765</v>
       </c>
       <c r="AQ10" t="n">
-        <v>5725.0898</v>
+        <v>9521.0978</v>
       </c>
       <c r="AR10" t="n">
-        <v>7097.2607</v>
+        <v>495.1376</v>
       </c>
       <c r="AS10" t="n">
-        <v>3857.8673</v>
+        <v>551.4074000000001</v>
       </c>
       <c r="AT10" t="n">
-        <v>5114.9861</v>
+        <v>11235.2667</v>
       </c>
       <c r="AU10" t="n">
-        <v>452.9614</v>
+        <v>5372.4117</v>
       </c>
       <c r="AV10" t="n">
-        <v>2797.1474</v>
+        <v>49.2402</v>
       </c>
       <c r="AW10" t="n">
-        <v>3666.8559</v>
+        <v>7820.1363</v>
       </c>
       <c r="AX10" t="n">
-        <v>8219.7371</v>
+        <v>9248.763800000001</v>
       </c>
       <c r="AY10" t="n">
-        <v>7500.9964</v>
+        <v>948.5833</v>
       </c>
       <c r="AZ10" t="n">
-        <v>10305.5455</v>
+        <v>4372.1293</v>
       </c>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="1" t="n">
-        <v>1166</v>
+        <v>11490</v>
       </c>
       <c r="B11" t="n">
-        <v>7712.2352</v>
+        <v>11288.4754</v>
       </c>
       <c r="C11" t="n">
-        <v>7469.1103</v>
+        <v>7325.9866</v>
       </c>
       <c r="D11" t="n">
-        <v>5493.3684</v>
+        <v>9843.7917</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0615</v>
+        <v>27.0812</v>
       </c>
       <c r="F11" t="n">
-        <v>2228.9635</v>
+        <v>3806.1415</v>
       </c>
       <c r="G11" t="n">
-        <v>3979.5816</v>
+        <v>554.0076</v>
       </c>
       <c r="H11" t="n">
-        <v>2397.6603</v>
+        <v>1947.1192</v>
       </c>
       <c r="I11" t="n">
-        <v>9.520899999999999</v>
+        <v>215.4451</v>
       </c>
       <c r="J11" t="n">
-        <v>3504.7359</v>
+        <v>7401.1648</v>
       </c>
       <c r="K11" t="n">
-        <v>456.2401</v>
+        <v>919.7538</v>
       </c>
       <c r="L11" t="n">
-        <v>243.6826</v>
+        <v>11747.5408</v>
       </c>
       <c r="M11" t="n">
-        <v>2330.5542</v>
+        <v>7497.6618</v>
       </c>
       <c r="N11" t="n">
-        <v>353.9283</v>
+        <v>438.8517</v>
       </c>
       <c r="O11" t="n">
-        <v>3433.72</v>
+        <v>6936.8836</v>
       </c>
       <c r="P11" t="n">
-        <v>7176.8842</v>
+        <v>167.8632</v>
       </c>
       <c r="Q11" t="n">
-        <v>8981.193499999999</v>
+        <v>11059.8089</v>
       </c>
       <c r="R11" t="n">
-        <v>4152.7791</v>
+        <v>374.3958</v>
       </c>
       <c r="S11" t="n">
-        <v>11631.495</v>
+        <v>427.1433</v>
       </c>
       <c r="T11" t="n">
-        <v>10492.7591</v>
+        <v>4968.5662</v>
       </c>
       <c r="U11" t="n">
-        <v>2810.2624</v>
+        <v>12.4393</v>
       </c>
       <c r="V11" t="n">
-        <v>55.8265</v>
+        <v>3798.5627</v>
       </c>
       <c r="W11" t="n">
-        <v>4399.1907</v>
+        <v>3960.4407</v>
       </c>
       <c r="X11" t="n">
-        <v>246.6049</v>
+        <v>4394.8047</v>
       </c>
       <c r="Y11" t="n">
-        <v>2334.7189</v>
+        <v>759.1541999999999</v>
       </c>
       <c r="Z11" t="n">
-        <v>8044.8284</v>
+        <v>468.8135</v>
       </c>
       <c r="AA11" t="n">
-        <v>1365.0906</v>
+        <v>8140.2274</v>
       </c>
       <c r="AB11" t="n">
-        <v>8433.0764</v>
+        <v>69.63460000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>6440.3825</v>
+        <v>2639.28</v>
       </c>
       <c r="AD11" t="n">
-        <v>4808.1716</v>
+        <v>11495.2516</v>
       </c>
       <c r="AE11" t="n">
-        <v>11734.6544</v>
+        <v>3.7763</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.2366</v>
+        <v>6520.2968</v>
       </c>
       <c r="AG11" t="n">
-        <v>704.1416</v>
+        <v>7953.7795</v>
       </c>
       <c r="AH11" t="n">
-        <v>770.2554</v>
+        <v>1352.3819</v>
       </c>
       <c r="AI11" t="n">
-        <v>3922.662</v>
+        <v>705.3484999999999</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6605.7691</v>
+        <v>3758.1847</v>
       </c>
       <c r="AK11" t="n">
-        <v>2753.8456</v>
+        <v>7742.0458</v>
       </c>
       <c r="AL11" t="n">
-        <v>6202.8734</v>
+        <v>4465.8024</v>
       </c>
       <c r="AM11" t="n">
-        <v>1320.3204</v>
+        <v>2630.484</v>
       </c>
       <c r="AN11" t="n">
-        <v>3934.3104</v>
+        <v>6736.048</v>
       </c>
       <c r="AO11" t="n">
-        <v>2853.0411</v>
+        <v>7277.4958</v>
       </c>
       <c r="AP11" t="n">
-        <v>10.9863</v>
+        <v>1396.5525</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5723.0821</v>
+        <v>9517.785099999999</v>
       </c>
       <c r="AR11" t="n">
-        <v>7090.9544</v>
+        <v>495.1376</v>
       </c>
       <c r="AS11" t="n">
-        <v>3857.4101</v>
+        <v>551.405</v>
       </c>
       <c r="AT11" t="n">
-        <v>5114.5035</v>
+        <v>11227.9223</v>
       </c>
       <c r="AU11" t="n">
-        <v>452.8653</v>
+        <v>5370.0794</v>
       </c>
       <c r="AV11" t="n">
-        <v>2796.4949</v>
+        <v>49.2402</v>
       </c>
       <c r="AW11" t="n">
-        <v>3665.4948</v>
+        <v>7812.9248</v>
       </c>
       <c r="AX11" t="n">
-        <v>8218.9501</v>
+        <v>9245.474200000001</v>
       </c>
       <c r="AY11" t="n">
-        <v>7499.4775</v>
+        <v>948.5833</v>
       </c>
       <c r="AZ11" t="n">
-        <v>9360.9666</v>
+        <v>4368.9408</v>
       </c>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="1" t="n">
-        <v>1333</v>
+        <v>13131</v>
       </c>
       <c r="B12" t="n">
-        <v>7710.3934</v>
+        <v>11284.8877</v>
       </c>
       <c r="C12" t="n">
-        <v>7462.6347</v>
+        <v>7325.9416</v>
       </c>
       <c r="D12" t="n">
-        <v>5492.2655</v>
+        <v>9840.4701</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0615</v>
+        <v>27.0746</v>
       </c>
       <c r="F12" t="n">
-        <v>2228.6276</v>
+        <v>3801.5026</v>
       </c>
       <c r="G12" t="n">
-        <v>3974.6145</v>
+        <v>554.0076</v>
       </c>
       <c r="H12" t="n">
-        <v>2396.4993</v>
+        <v>1946.3659</v>
       </c>
       <c r="I12" t="n">
-        <v>9.520899999999999</v>
+        <v>215.1488</v>
       </c>
       <c r="J12" t="n">
-        <v>3503.2062</v>
+        <v>7400.6479</v>
       </c>
       <c r="K12" t="n">
-        <v>456.2401</v>
+        <v>919.7538</v>
       </c>
       <c r="L12" t="n">
-        <v>243.6551</v>
+        <v>11722.366</v>
       </c>
       <c r="M12" t="n">
-        <v>2328.051</v>
+        <v>7492.5178</v>
       </c>
       <c r="N12" t="n">
-        <v>353.9178</v>
+        <v>438.8367</v>
       </c>
       <c r="O12" t="n">
-        <v>3433.013</v>
+        <v>6936.6643</v>
       </c>
       <c r="P12" t="n">
-        <v>7174.4996</v>
+        <v>167.8632</v>
       </c>
       <c r="Q12" t="n">
-        <v>8979.294400000001</v>
+        <v>11055.0185</v>
       </c>
       <c r="R12" t="n">
-        <v>4152.3533</v>
+        <v>374.3958</v>
       </c>
       <c r="S12" t="n">
-        <v>11627.4017</v>
+        <v>427.1433</v>
       </c>
       <c r="T12" t="n">
-        <v>10489.5436</v>
+        <v>4966.3961</v>
       </c>
       <c r="U12" t="n">
-        <v>2810.2171</v>
+        <v>12.4393</v>
       </c>
       <c r="V12" t="n">
-        <v>55.8265</v>
+        <v>3794.8776</v>
       </c>
       <c r="W12" t="n">
-        <v>4398.0583</v>
+        <v>3960.4047</v>
       </c>
       <c r="X12" t="n">
-        <v>246.6049</v>
+        <v>4393.0962</v>
       </c>
       <c r="Y12" t="n">
-        <v>2334.0713</v>
+        <v>759.1541999999999</v>
       </c>
       <c r="Z12" t="n">
-        <v>8043.2646</v>
+        <v>468.6979</v>
       </c>
       <c r="AA12" t="n">
-        <v>1364.1837</v>
+        <v>8133.9969</v>
       </c>
       <c r="AB12" t="n">
-        <v>8430.473900000001</v>
+        <v>69.63460000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>6436.7513</v>
+        <v>2637.9729</v>
       </c>
       <c r="AD12" t="n">
-        <v>4807.0139</v>
+        <v>11486.4403</v>
       </c>
       <c r="AE12" t="n">
-        <v>11728.1025</v>
+        <v>3.7763</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.2269</v>
+        <v>6517.6156</v>
       </c>
       <c r="AG12" t="n">
-        <v>704.0590999999999</v>
+        <v>7952.8013</v>
       </c>
       <c r="AH12" t="n">
-        <v>770.0405</v>
+        <v>1352.0185</v>
       </c>
       <c r="AI12" t="n">
-        <v>3921.1848</v>
+        <v>705.3237</v>
       </c>
       <c r="AJ12" t="n">
-        <v>6600.7552</v>
+        <v>3758.0887</v>
       </c>
       <c r="AK12" t="n">
-        <v>2752.6918</v>
+        <v>7741.0234</v>
       </c>
       <c r="AL12" t="n">
-        <v>6198.6147</v>
+        <v>4465.3187</v>
       </c>
       <c r="AM12" t="n">
-        <v>1320.0533</v>
+        <v>2630.2387</v>
       </c>
       <c r="AN12" t="n">
-        <v>3933.7245</v>
+        <v>6731.0161</v>
       </c>
       <c r="AO12" t="n">
-        <v>2852.9517</v>
+        <v>7264.1512</v>
       </c>
       <c r="AP12" t="n">
-        <v>10.9863</v>
+        <v>1391.0551</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5721.7848</v>
+        <v>9507.852999999999</v>
       </c>
       <c r="AR12" t="n">
-        <v>7088.0835</v>
+        <v>495.1376</v>
       </c>
       <c r="AS12" t="n">
-        <v>3857.2843</v>
+        <v>551.405</v>
       </c>
       <c r="AT12" t="n">
-        <v>5114.2072</v>
+        <v>11220.6709</v>
       </c>
       <c r="AU12" t="n">
-        <v>452.8235</v>
+        <v>5366.8759</v>
       </c>
       <c r="AV12" t="n">
-        <v>2792.3306</v>
+        <v>49.2402</v>
       </c>
       <c r="AW12" t="n">
-        <v>3663.4493</v>
+        <v>7800.9686</v>
       </c>
       <c r="AX12" t="n">
-        <v>8218.051600000001</v>
+        <v>9244.4049</v>
       </c>
       <c r="AY12" t="n">
-        <v>7498.2289</v>
+        <v>948.5833</v>
       </c>
       <c r="AZ12" t="n">
-        <v>7274.7036</v>
+        <v>4366.2257</v>
       </c>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="1" t="n">
-        <v>1499</v>
+        <v>14773</v>
       </c>
       <c r="B13" t="n">
-        <v>7708.9892</v>
+        <v>11280.8474</v>
       </c>
       <c r="C13" t="n">
-        <v>7462.0687</v>
+        <v>7322.4154</v>
       </c>
       <c r="D13" t="n">
-        <v>5491.0367</v>
+        <v>9838.5931</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0615</v>
+        <v>27.0746</v>
       </c>
       <c r="F13" t="n">
-        <v>2228.0444</v>
+        <v>3789.3598</v>
       </c>
       <c r="G13" t="n">
-        <v>3973.8668</v>
+        <v>554.0076</v>
       </c>
       <c r="H13" t="n">
-        <v>2395.6651</v>
+        <v>1944.443</v>
       </c>
       <c r="I13" t="n">
-        <v>9.520899999999999</v>
+        <v>214.8308</v>
       </c>
       <c r="J13" t="n">
-        <v>3487.794</v>
+        <v>7397.8175</v>
       </c>
       <c r="K13" t="n">
-        <v>456.2165</v>
+        <v>919.7538</v>
       </c>
       <c r="L13" t="n">
-        <v>243.6551</v>
+        <v>11712.8789</v>
       </c>
       <c r="M13" t="n">
-        <v>2327.1825</v>
+        <v>7485.8549</v>
       </c>
       <c r="N13" t="n">
-        <v>353.9178</v>
+        <v>438.8367</v>
       </c>
       <c r="O13" t="n">
-        <v>3432.9205</v>
+        <v>6931.6449</v>
       </c>
       <c r="P13" t="n">
-        <v>7171.6132</v>
+        <v>167.8632</v>
       </c>
       <c r="Q13" t="n">
-        <v>8978.416800000001</v>
+        <v>11049.2687</v>
       </c>
       <c r="R13" t="n">
-        <v>4152.0415</v>
+        <v>374.3958</v>
       </c>
       <c r="S13" t="n">
-        <v>11619.6455</v>
+        <v>427.1433</v>
       </c>
       <c r="T13" t="n">
-        <v>10488.1137</v>
+        <v>4965.041</v>
       </c>
       <c r="U13" t="n">
-        <v>2809.671</v>
+        <v>12.4393</v>
       </c>
       <c r="V13" t="n">
-        <v>55.8265</v>
+        <v>3792.8613</v>
       </c>
       <c r="W13" t="n">
-        <v>4394.2715</v>
+        <v>3959.348</v>
       </c>
       <c r="X13" t="n">
-        <v>246.5879</v>
+        <v>4390.8004</v>
       </c>
       <c r="Y13" t="n">
-        <v>2333.8869</v>
+        <v>759.1541999999999</v>
       </c>
       <c r="Z13" t="n">
-        <v>8040.1954</v>
+        <v>468.6979</v>
       </c>
       <c r="AA13" t="n">
-        <v>1364.0008</v>
+        <v>8132.2122</v>
       </c>
       <c r="AB13" t="n">
-        <v>8423.614799999999</v>
+        <v>69.6189</v>
       </c>
       <c r="AC13" t="n">
-        <v>6436.4189</v>
+        <v>2633.5384</v>
       </c>
       <c r="AD13" t="n">
-        <v>4805.5745</v>
+        <v>11482.5893</v>
       </c>
       <c r="AE13" t="n">
-        <v>11726.6795</v>
+        <v>3.7763</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.2269</v>
+        <v>6515.143</v>
       </c>
       <c r="AG13" t="n">
-        <v>703.9290999999999</v>
+        <v>7942.2266</v>
       </c>
       <c r="AH13" t="n">
-        <v>769.9165</v>
+        <v>1351.9786</v>
       </c>
       <c r="AI13" t="n">
-        <v>3920.5505</v>
+        <v>705.3237</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6596.7333</v>
+        <v>3757.8412</v>
       </c>
       <c r="AK13" t="n">
-        <v>2751.7831</v>
+        <v>7734.0964</v>
       </c>
       <c r="AL13" t="n">
-        <v>6197.9784</v>
+        <v>4460.74</v>
       </c>
       <c r="AM13" t="n">
-        <v>1319.8844</v>
+        <v>2630.2146</v>
       </c>
       <c r="AN13" t="n">
-        <v>3931.9487</v>
+        <v>6729.6136</v>
       </c>
       <c r="AO13" t="n">
-        <v>2852.9014</v>
+        <v>7261.0816</v>
       </c>
       <c r="AP13" t="n">
-        <v>10.9863</v>
+        <v>1390.6994</v>
       </c>
       <c r="AQ13" t="n">
-        <v>5718.9729</v>
+        <v>9503.031999999999</v>
       </c>
       <c r="AR13" t="n">
-        <v>7081.3602</v>
+        <v>495.1376</v>
       </c>
       <c r="AS13" t="n">
-        <v>3856.4938</v>
+        <v>551.405</v>
       </c>
       <c r="AT13" t="n">
-        <v>5112.8041</v>
+        <v>11214.3846</v>
       </c>
       <c r="AU13" t="n">
-        <v>452.8181</v>
+        <v>5361.8514</v>
       </c>
       <c r="AV13" t="n">
-        <v>2791.2268</v>
+        <v>49.2402</v>
       </c>
       <c r="AW13" t="n">
-        <v>3661.0589</v>
+        <v>7796.8773</v>
       </c>
       <c r="AX13" t="n">
-        <v>8207.9164</v>
+        <v>9242.9701</v>
       </c>
       <c r="AY13" t="n">
-        <v>7495.1596</v>
+        <v>948.5833</v>
       </c>
       <c r="AZ13" t="n">
-        <v>6093.7495</v>
+        <v>4363.7909</v>
       </c>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="1" t="n">
-        <v>1666</v>
+        <v>16414</v>
       </c>
       <c r="B14" t="n">
-        <v>7706.0378</v>
+        <v>11268.5352</v>
       </c>
       <c r="C14" t="n">
-        <v>7458.2368</v>
+        <v>7321.634</v>
       </c>
       <c r="D14" t="n">
-        <v>5490.5417</v>
+        <v>9835.6932</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0615</v>
+        <v>27.0718</v>
       </c>
       <c r="F14" t="n">
-        <v>2227.8574</v>
+        <v>3787.6483</v>
       </c>
       <c r="G14" t="n">
-        <v>3968.251</v>
+        <v>554.0076</v>
       </c>
       <c r="H14" t="n">
-        <v>2388.7018</v>
+        <v>1944.443</v>
       </c>
       <c r="I14" t="n">
-        <v>9.520899999999999</v>
+        <v>214.7878</v>
       </c>
       <c r="J14" t="n">
-        <v>3485.7821</v>
+        <v>7395.9559</v>
       </c>
       <c r="K14" t="n">
-        <v>456.1641</v>
+        <v>919.7195</v>
       </c>
       <c r="L14" t="n">
-        <v>243.6551</v>
+        <v>11707.8297</v>
       </c>
       <c r="M14" t="n">
-        <v>2326.2242</v>
+        <v>7476.5955</v>
       </c>
       <c r="N14" t="n">
-        <v>353.7758</v>
+        <v>438.8122</v>
       </c>
       <c r="O14" t="n">
-        <v>3432.4328</v>
+        <v>6926.8254</v>
       </c>
       <c r="P14" t="n">
-        <v>7170.4201</v>
+        <v>167.857</v>
       </c>
       <c r="Q14" t="n">
-        <v>8975.586300000001</v>
+        <v>11040.9923</v>
       </c>
       <c r="R14" t="n">
-        <v>4147.9434</v>
+        <v>374.3605</v>
       </c>
       <c r="S14" t="n">
-        <v>11611.6019</v>
+        <v>427.1433</v>
       </c>
       <c r="T14" t="n">
-        <v>10479.3664</v>
+        <v>4962.0261</v>
       </c>
       <c r="U14" t="n">
-        <v>2809.5154</v>
+        <v>12.4393</v>
       </c>
       <c r="V14" t="n">
-        <v>55.8265</v>
+        <v>3792.8613</v>
       </c>
       <c r="W14" t="n">
-        <v>4393.2425</v>
+        <v>3953.1537</v>
       </c>
       <c r="X14" t="n">
-        <v>246.5878</v>
+        <v>4384.5292</v>
       </c>
       <c r="Y14" t="n">
-        <v>2333.4623</v>
+        <v>759.1541999999999</v>
       </c>
       <c r="Z14" t="n">
-        <v>8039.4436</v>
+        <v>468.6838</v>
       </c>
       <c r="AA14" t="n">
-        <v>1363.4426</v>
+        <v>8126.3937</v>
       </c>
       <c r="AB14" t="n">
-        <v>8411.117200000001</v>
+        <v>69.61369999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>6433.6647</v>
+        <v>2630.0616</v>
       </c>
       <c r="AD14" t="n">
-        <v>4804.159</v>
+        <v>11480.4284</v>
       </c>
       <c r="AE14" t="n">
-        <v>11722.6875</v>
+        <v>3.7763</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.2269</v>
+        <v>6513.8717</v>
       </c>
       <c r="AG14" t="n">
-        <v>703.6978</v>
+        <v>7937.8958</v>
       </c>
       <c r="AH14" t="n">
-        <v>769.7043</v>
+        <v>1350.8781</v>
       </c>
       <c r="AI14" t="n">
-        <v>3919.8068</v>
+        <v>705.1272</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6594.0774</v>
+        <v>3757.4492</v>
       </c>
       <c r="AK14" t="n">
-        <v>2750.4722</v>
+        <v>7728.326</v>
       </c>
       <c r="AL14" t="n">
-        <v>6196.3223</v>
+        <v>4458.4834</v>
       </c>
       <c r="AM14" t="n">
-        <v>1319.8393</v>
+        <v>2630.2006</v>
       </c>
       <c r="AN14" t="n">
-        <v>3931.168</v>
+        <v>6726.5139</v>
       </c>
       <c r="AO14" t="n">
-        <v>2852.7413</v>
+        <v>7253.5136</v>
       </c>
       <c r="AP14" t="n">
-        <v>10.9863</v>
+        <v>1390.1861</v>
       </c>
       <c r="AQ14" t="n">
-        <v>5715.8197</v>
+        <v>9502.027700000001</v>
       </c>
       <c r="AR14" t="n">
-        <v>7080.3298</v>
+        <v>495.1376</v>
       </c>
       <c r="AS14" t="n">
-        <v>3855.6945</v>
+        <v>551.405</v>
       </c>
       <c r="AT14" t="n">
-        <v>5111.9097</v>
+        <v>11207.1915</v>
       </c>
       <c r="AU14" t="n">
-        <v>452.7506</v>
+        <v>5358.0443</v>
       </c>
       <c r="AV14" t="n">
-        <v>2790.7867</v>
+        <v>49.2402</v>
       </c>
       <c r="AW14" t="n">
-        <v>3659.9209</v>
+        <v>7790.7971</v>
       </c>
       <c r="AX14" t="n">
-        <v>8204.8184</v>
+        <v>9236.288500000001</v>
       </c>
       <c r="AY14" t="n">
-        <v>7494.1383</v>
+        <v>948.5833</v>
       </c>
       <c r="AZ14" t="n">
-        <v>5788.2361</v>
+        <v>4361.2839</v>
       </c>
     </row>
   </sheetData>
